--- a/results.xlsx
+++ b/results.xlsx
@@ -1114,7 +1114,7 @@
   </sheetPr>
   <dimension ref="A1:I811"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H62" activeCellId="0" sqref="H62"/>
     </sheetView>
   </sheetViews>
